--- a/산출물_프로젝트_스킬 관리/설계/AND-03.프로그램목록/20201103_스킬상세관리팝업_AND-03_프로그램목록_v0.1.xlsx
+++ b/산출물_프로젝트_스킬 관리/설계/AND-03.프로그램목록/20201103_스킬상세관리팝업_AND-03_프로그램목록_v0.1.xlsx
@@ -359,10 +359,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
   <si>
-    <t>프로젝트명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>문서번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -371,10 +367,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>프로그램 목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>개 정 이 력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -400,10 +392,6 @@
   </si>
   <si>
     <t>v0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYYY-MM-DD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -792,6 +780,18 @@
   </si>
   <si>
     <t xml:space="preserve"> REQ-FN-SK-002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정헌철</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMS 프로젝트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬상세관리_프로그램 목록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -991,7 +991,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1084,6 +1084,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1357,7 +1360,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1368,7 +1371,7 @@
   <dimension ref="A2:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1379,14 +1382,14 @@
     <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.4">
       <c r="K2" s="1"/>
       <c r="L2" s="2" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="40.200000000000003" x14ac:dyDescent="0.4">
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="4" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1405,13 +1408,13 @@
     </row>
     <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.4">
       <c r="K8" s="26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="26"/>
     </row>
     <row r="9" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
       <c r="K9" s="27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9" s="28"/>
     </row>
@@ -1429,7 +1432,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1444,14 +1449,14 @@
     <row r="1" spans="1:5" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="str">
         <f>겉표지!L2</f>
-        <v>프로젝트명</v>
+        <v>IMS 프로젝트</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6" t="str">
         <f>겉표지!L4</f>
-        <v>프로그램 목록</v>
+        <v>스킬상세관리_프로그램 목록</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1463,37 +1468,39 @@
     </row>
     <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="C4" s="9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="D6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="E6" s="10" t="s">
         <v>7</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="B7" s="31">
+        <v>44139</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="11"/>
+        <v>9</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>60</v>
+      </c>
       <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5" ht="13.5" x14ac:dyDescent="0.3">
@@ -1668,7 +1675,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
@@ -1685,7 +1692,7 @@
     <row r="1" spans="1:8" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="str">
         <f>겉표지!L2</f>
-        <v>프로젝트명</v>
+        <v>IMS 프로젝트</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -1695,7 +1702,7 @@
       <c r="G1" s="14"/>
       <c r="H1" s="6" t="str">
         <f>겉표지!L4</f>
-        <v>프로그램 목록</v>
+        <v>스킬상세관리_프로그램 목록</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1720,28 +1727,28 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="21" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B4" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="F4" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>51</v>
-      </c>
       <c r="G4" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.3">
@@ -1925,8 +1932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AF10" sqref="AF10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
@@ -1955,7 +1962,7 @@
     <row r="1" spans="1:30" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="str">
         <f>겉표지!L2</f>
-        <v>프로젝트명</v>
+        <v>IMS 프로젝트</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -1965,7 +1972,7 @@
       <c r="G1" s="14"/>
       <c r="AD1" s="6" t="str">
         <f>겉표지!L4</f>
-        <v>프로그램 목록</v>
+        <v>스킬상세관리_프로그램 목록</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1990,58 +1997,58 @@
     </row>
     <row r="4" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="30" t="s">
+      <c r="I4" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="30" t="s">
+      <c r="K4" s="29" t="s">
         <v>18</v>
-      </c>
-      <c r="K4" s="29" t="s">
-        <v>21</v>
       </c>
       <c r="L4" s="29"/>
       <c r="M4" s="29"/>
       <c r="N4" s="29"/>
       <c r="O4" s="29"/>
       <c r="P4" s="29" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Q4" s="29"/>
       <c r="R4" s="29"/>
       <c r="S4" s="29"/>
       <c r="T4" s="29"/>
       <c r="U4" s="29" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="V4" s="29"/>
       <c r="W4" s="29"/>
       <c r="X4" s="29"/>
       <c r="Y4" s="29"/>
       <c r="Z4" s="29" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AA4" s="29"/>
       <c r="AB4" s="29"/>
@@ -2060,64 +2067,64 @@
       <c r="I5" s="30"/>
       <c r="J5" s="30"/>
       <c r="K5" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" s="20" t="s">
+      <c r="Q5" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="R5" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="S5" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="T5" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="U5" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="20" t="s">
+      <c r="V5" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="W5" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="X5" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y5" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z5" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="P5" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q5" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="R5" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="S5" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="T5" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="U5" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="V5" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="W5" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="X5" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y5" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z5" s="20" t="s">
-        <v>34</v>
-      </c>
       <c r="AA5" s="21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AB5" s="21" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AC5" s="20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AD5" s="20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="27" customHeight="1" x14ac:dyDescent="0.4">
@@ -2125,30 +2132,30 @@
         <v>1</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E6" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="24" t="s">
         <v>56</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>59</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J6" s="19"/>
       <c r="K6" s="19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L6" s="25">
         <v>44053</v>
@@ -2168,7 +2175,7 @@
       <c r="S6" s="19"/>
       <c r="T6" s="19"/>
       <c r="U6" s="19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="V6" s="25">
         <v>44088</v>
@@ -2183,7 +2190,7 @@
         <v>44113</v>
       </c>
       <c r="Z6" s="19" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AA6" s="25">
         <v>44118</v>
@@ -3094,7 +3101,7 @@
       <c r="AC34" s="18"/>
       <c r="AD34" s="18"/>
     </row>
-    <row r="35" spans="1:30" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
@@ -3126,7 +3133,7 @@
       <c r="AC35" s="18"/>
       <c r="AD35" s="18"/>
     </row>
-    <row r="36" spans="1:30" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A36" s="18"/>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
@@ -3158,7 +3165,7 @@
       <c r="AC36" s="18"/>
       <c r="AD36" s="18"/>
     </row>
-    <row r="37" spans="1:30" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A37" s="18"/>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
@@ -3229,58 +3236,58 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
